--- a/data/sc.xlsx
+++ b/data/sc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="start_sc" sheetId="12" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,10 @@
   </si>
   <si>
     <t xml:space="preserve">sc -a start -i </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,64 +611,81 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -677,47 +698,60 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -729,55 +763,70 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="2" max="3" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
